--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjanashanmugasundaram/IdeaProjects/SC2002_OOP_FOMS/SC2002_OOP_FOMSApp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488FF147-11E6-A74A-BF85-256EC8AA1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128F0FA3-AB35-4944-BEEE-1DFE7901E844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -90,14 +90,28 @@
   </si>
   <si>
     <t>COLE SLAW : test</t>
+  </si>
+  <si>
+    <t>D-102</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>fries, fries</t>
+  </si>
+  <si>
+    <t>fries : test</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +124,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,89 +489,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9B652-E5C7-AB48-B074-FB8F261F35A4}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G8"/>
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="40.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.83203125" collapsed="true"/>
+    <col min="1" max="2" width="10.6640625" style="1"/>
+    <col min="3" max="3" width="40.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="10.6640625" style="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -3,40 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128F0FA3-AB35-4944-BEEE-1DFE7901E844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{938D3E23-9F85-4B16-8E88-AF9204E7B166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7270" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -50,15 +40,9 @@
     <t>customisations</t>
   </si>
   <si>
-    <t>pickup option</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>payment method</t>
-  </si>
-  <si>
     <t>T-100</t>
   </si>
   <si>
@@ -105,12 +89,40 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>takeaway</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>D-100</t>
+  </si>
+  <si>
+    <t>Fries, Chicken Tenders</t>
+  </si>
+  <si>
+    <t>Fries : curry sauce, Chicken Tenders : less salt</t>
+  </si>
+  <si>
+    <t>Credit/Debit Card</t>
+  </si>
+  <si>
+    <t>Chicken Nugget, Chicken Tenders, Fries</t>
+  </si>
+  <si>
+    <t>Chicken Tenders : test test, Chicken Tenders : test</t>
+  </si>
+  <si>
+    <t>READY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -489,19 +501,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9B652-E5C7-AB48-B074-FB8F261F35A4}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="1"/>
-    <col min="3" max="3" width="40.83203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="10.6640625" style="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="2" style="1" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.83203125" collapsed="true"/>
+    <col min="4" max="6" style="1" width="10.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.83203125" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -518,82 +530,128 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A342A4BF-90A5-4FEE-8469-09CE07E34804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264EFAF5-8CA5-4E48-B08C-636F510B3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>Fries, Chicken Tenders</t>
+  </si>
+  <si>
+    <t>Fries : more salt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>10.3</t>
   </si>
 </sst>
 </file>
@@ -524,22 +539,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9B652-E5C7-AB48-B074-FB8F261F35A4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" style="1" width="10.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="40.83203125" collapsed="true"/>
-    <col min="4" max="6" style="1" width="10.6640625" collapsed="true"/>
+    <col min="4" max="5" style="1" width="10.6640625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="1" width="17.83203125" collapsed="true"/>
     <col min="8" max="16384" style="1" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,36 +571,42 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -601,14 +622,17 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+      <c r="F3" s="1">
+        <v>10.4</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -624,149 +648,248 @@
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
+      <c r="F4" s="1">
+        <v>3.5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
         <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>10.3</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>PayPal</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9B652-E5C7-AB48-B074-FB8F261F35A4}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -892,6 +898,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>PayPal</t>
+  </si>
+  <si>
+    <t>6.6</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D9B652-E5C7-AB48-B074-FB8F261F35A4}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -924,6 +927,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422E28E5-423B-49DD-9DAC-C9066DBBCE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06305A6-C165-4296-8B93-2EF9D744B987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -46,12 +46,55 @@
   </si>
   <si>
     <t>payment</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>D-101</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>Chicken Nugget, Chicken Nugget</t>
+  </si>
+  <si>
+    <t>Chicken Nugget : test</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>PayNow</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>D-102</t>
+  </si>
+  <si>
+    <t>Chicken Nugget, Tea</t>
+  </si>
+  <si>
+    <t>Tea : less sugar</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>Credit/Debit Card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -81,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,13 +132,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,19 +487,19 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="40.83203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.6640625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="10.6640625" style="1" collapsed="1"/>
+    <col min="1" max="2" style="1" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.83203125" collapsed="true"/>
+    <col min="4" max="5" style="1" width="10.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.83203125" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,41 +516,120 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="F9" s="1"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F10" s="1"/>

--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06305A6-C165-4296-8B93-2EF9D744B987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FFA162-58D4-4DD1-96CC-F181F8EA6AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -49,52 +49,12 @@
   </si>
   <si>
     <t>amount</t>
-  </si>
-  <si>
-    <t>D-101</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>Chicken Nugget, Chicken Nugget</t>
-  </si>
-  <si>
-    <t>Chicken Nugget : test</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>PayNow</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>D-102</t>
-  </si>
-  <si>
-    <t>Chicken Nugget, Tea</t>
-  </si>
-  <si>
-    <t>Tea : less sugar</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>Credit/Debit Card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -124,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,24 +92,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,19 +436,19 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" style="1" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.83203125" collapsed="true"/>
-    <col min="4" max="5" style="1" width="10.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.83203125" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="10.6640625" collapsed="true"/>
+    <col min="1" max="2" width="10.6640625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="40.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.6640625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="10.6640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,57 +474,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4"/>

--- a/FOMS/data/order_list.xlsx
+++ b/FOMS/data/order_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FFA162-58D4-4DD1-96CC-F181F8EA6AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAF64F0-E2B2-46CA-B105-2CAFBBAE0725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C82953F-FE30-0444-AC4E-BE046C6CD01D}"/>
   </bookViews>
